--- a/biology/Botanique/Pigamon_fétide/Pigamon_fétide.xlsx
+++ b/biology/Botanique/Pigamon_fétide/Pigamon_fétide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pigamon_f%C3%A9tide</t>
+          <t>Pigamon_fétide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalictrum foetidum
 Le Pigamon fétide (Thalictrum foetidum) est une espèce de plantes vivaces à petites fleurs de la famille des Ranunculaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pigamon_f%C3%A9tide</t>
+          <t>Pigamon_fétide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Thalictrum comprend une centaine d'espèces principalement de l'hémisphère Nord.
 La famille des Renonculacées dont l'espèce fait partie comprend plus de 2 000 espèces réparties sur environ 47 genres (2 500 espèces et 58 types selon d'autres sources).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pigamon_f%C3%A9tide</t>
+          <t>Pigamon_fétide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La signification du terme générique Thalictrum doit remonter à Dioscoride (40-90), médecin, botaniste et pharmacien qui a pratiqué en grec à Rome, ou Pline (23-79), écrivain naturaliste romain, à la fois sous la forme de "thalictron" « faisant allusion (mais c'est un sujet à controverse) à leur floraison précoce ("Thallein" évoque une renaissance, tandis que "Ictar" évoque un début) ou la couleur des pousses tendres. Le nom spécifique foetidum (puant) fait référence à la mauvaise odeur émanant des fleurs.
 Le nom scientifique actuellement acceptée (Thalictrum foetidum), a été proposé par Carl von Linné (1707-1778), biologiste et écrivain suédois, considéré comme le père moderne de la classification scientifique des organismes vivants, dans la publication "Especes plantarum" (1753).
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pigamon_f%C3%A9tide</t>
+          <t>Pigamon_fétide</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalictrum foetidum est une plante herbacée vivace dont la hauteur peut atteindre 2 à 4 dm (maximum 10 dm).
 La forme biologique de l'espèce est vivace, celle-ci hivernant au niveau du sol, protégée du gel ou de la neige, avec un axe droit de fleur, et souvent dépourvue de feuille.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pigamon_f%C3%A9tide</t>
+          <t>Pigamon_fétide</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pigamon fétide préfèrent un emplacement semi-ombragé sur des sols humides.
 Le substrat doit être glaiseux car le Pigamon fétide préfère des sols relativement riches.
